--- a/files/Bảng điểm Hạnh kiểm/125211_Ky1Nam2.xlsx
+++ b/files/Bảng điểm Hạnh kiểm/125211_Ky1Nam2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Web\Fullstack\student-conduct\files\Bảng điểm Hạnh kiểm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825C6CE6-DDD0-4F23-91C8-9FAC754EB167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509FC76D-3B7C-46D3-AEB7-E7AF71F73F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mau THKQRL" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Ý thức tham gia các hoạt động công ích, tình nguyện</t>
   </si>
   <si>
-    <t>Tham gia tuyên truyền, phòng chống tội phạm'</t>
-  </si>
-  <si>
     <t>Không vi phạm: 3; Tuyên truyền: 2</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>12521170</t>
+  </si>
+  <si>
+    <t>Tham gia tuyên truyền, phòng chống tội phạm</t>
   </si>
 </sst>
 </file>
@@ -942,22 +942,22 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1681,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A64" sqref="A64:K68"/>
     </sheetView>
   </sheetViews>
@@ -1702,38 +1702,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" spans="1:13" ht="8.25" customHeight="1">
       <c r="A3" s="1"/>
@@ -1749,19 +1749,19 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="17.25" customHeight="1">
       <c r="A5" s="16" t="s">
@@ -1777,7 +1777,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="16">
         <v>1</v>
@@ -1830,10 +1830,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="45">
         <v>37884</v>
@@ -1867,7 +1867,7 @@
         <v>Khá</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="19.95" customHeight="1">
@@ -1875,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="45">
         <v>37915</v>
@@ -1912,7 +1912,7 @@
         <v>Xuất sắc</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="19.95" customHeight="1">
@@ -1920,10 +1920,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="45">
         <v>37915</v>
@@ -1962,10 +1962,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D10" s="45">
         <v>37735</v>
@@ -2004,10 +2004,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="45">
         <v>37654</v>
@@ -2046,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D12" s="45">
         <v>37483.428796296292</v>
@@ -2088,10 +2088,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D13" s="45">
         <v>37932</v>
@@ -2130,10 +2130,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="45">
         <v>37912</v>
@@ -2172,10 +2172,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D15" s="45">
         <v>37945</v>
@@ -2214,10 +2214,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D16" s="45">
         <v>37689</v>
@@ -2256,10 +2256,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D17" s="45">
         <v>37786</v>
@@ -2298,10 +2298,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D18" s="45">
         <v>37845</v>
@@ -2340,10 +2340,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D19" s="45">
         <v>37831</v>
@@ -2382,10 +2382,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D20" s="45">
         <v>37707</v>
@@ -2424,10 +2424,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D21" s="45">
         <v>37915</v>
@@ -2466,10 +2466,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D22" s="45">
         <v>37835</v>
@@ -2508,10 +2508,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D23" s="45">
         <v>37669</v>
@@ -2550,10 +2550,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D24" s="45">
         <v>37880</v>
@@ -2592,10 +2592,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D25" s="45">
         <v>37885</v>
@@ -2634,10 +2634,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D26" s="45">
         <v>37683</v>
@@ -2676,10 +2676,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D27" s="45">
         <v>37739</v>
@@ -2718,10 +2718,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D28" s="45">
         <v>37690</v>
@@ -2760,10 +2760,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D29" s="45">
         <v>37227.427870370368</v>
@@ -2802,10 +2802,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D30" s="45">
         <v>37718</v>
@@ -2844,10 +2844,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D31" s="45">
         <v>37813</v>
@@ -2886,10 +2886,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D32" s="45">
         <v>37912</v>
@@ -2928,10 +2928,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D33" s="45">
         <v>37901</v>
@@ -2970,10 +2970,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D34" s="45">
         <v>37856</v>
@@ -3012,10 +3012,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D35" s="45">
         <v>37954</v>
@@ -3054,10 +3054,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D36" s="45">
         <v>37551</v>
@@ -3096,10 +3096,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D37" s="45">
         <v>37973</v>
@@ -3138,10 +3138,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D38" s="45">
         <v>37692</v>
@@ -3180,10 +3180,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D39" s="45">
         <v>37899</v>
@@ -3223,10 +3223,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D40" s="45">
         <v>37856</v>
@@ -3266,10 +3266,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D41" s="45">
         <v>37855</v>
@@ -3309,10 +3309,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D42" s="45">
         <v>37765</v>
@@ -3352,10 +3352,10 @@
         <v>37</v>
       </c>
       <c r="B43" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D43" s="45">
         <v>37898</v>
@@ -3395,10 +3395,10 @@
         <v>38</v>
       </c>
       <c r="B44" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D44" s="45">
         <v>37295</v>
@@ -3438,10 +3438,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D45" s="45">
         <v>37985</v>
@@ -3481,10 +3481,10 @@
         <v>40</v>
       </c>
       <c r="B46" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D46" s="45">
         <v>37683</v>
@@ -3535,10 +3535,10 @@
         <v>41</v>
       </c>
       <c r="B47" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D47" s="45">
         <v>37973</v>
@@ -3577,10 +3577,10 @@
         <v>42</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D48" s="45">
         <v>37400</v>
@@ -3623,10 +3623,10 @@
         <v>43</v>
       </c>
       <c r="B49" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D49" s="45">
         <v>37935</v>
@@ -3665,10 +3665,10 @@
         <v>44</v>
       </c>
       <c r="B50" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D50" s="45">
         <v>37912</v>
@@ -3707,10 +3707,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D51" s="45">
         <v>37646</v>
@@ -3749,10 +3749,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D52" s="45">
         <v>37972</v>
@@ -3791,10 +3791,10 @@
         <v>47</v>
       </c>
       <c r="B53" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D53" s="45">
         <v>37911</v>
@@ -3833,10 +3833,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D54" s="45">
         <v>37900</v>
@@ -3875,10 +3875,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D55" s="45">
         <v>37897</v>
@@ -3917,10 +3917,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="45">
         <v>37800</v>
@@ -3959,10 +3959,10 @@
         <v>51</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="45">
         <v>37792</v>
@@ -4101,7 +4101,7 @@
     <row r="63" spans="1:11">
       <c r="F63" s="52" t="str">
         <f ca="1">"Hưng Yên, ngày "&amp;DAY(TODAY())&amp;" tháng "&amp;MONTH(TODAY())&amp;" năm "&amp;YEAR(NOW())</f>
-        <v>Hưng Yên, ngày 23 tháng 8 năm 2023</v>
+        <v>Hưng Yên, ngày 1 tháng 10 năm 2023</v>
       </c>
       <c r="G63" s="52"/>
       <c r="H63" s="52"/>
@@ -4111,35 +4111,35 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="1"/>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51" t="s">
+      <c r="E64" s="50"/>
+      <c r="F64" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1"/>
@@ -4169,41 +4169,41 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1"/>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54" t="s">
+      <c r="C68" s="49"/>
+      <c r="D68" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:K57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="15">
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:K68"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="F64:K64"/>
     <mergeCell ref="F65:K65"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B7:C15 B39:C45 M46:V46">
@@ -4299,7 +4299,7 @@
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3:K3"/>
     </sheetView>
   </sheetViews>
@@ -4334,19 +4334,19 @@
         <v>26</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>56</v>
-      </c>
       <c r="J1" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K1" s="23" t="s">
         <v>27</v>
@@ -4388,10 +4388,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="46">
         <v>5.85</v>
@@ -4425,7 +4425,7 @@
         <v>11</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15">
@@ -4433,10 +4433,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="46">
         <v>9.02</v>
@@ -4468,7 +4468,7 @@
         <v>17</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15">
@@ -4476,10 +4476,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="46">
         <v>8.36</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.8">
@@ -4520,10 +4520,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="46">
         <v>5.24</v>
@@ -4562,10 +4562,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D7" s="46">
         <v>7.61</v>
@@ -4602,10 +4602,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="46">
         <v>6.13</v>
@@ -4644,10 +4644,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="46">
         <v>4.91</v>
@@ -4686,10 +4686,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="46">
         <v>6.24</v>
@@ -4728,10 +4728,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="46">
         <v>6.65</v>
@@ -4770,10 +4770,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="46">
         <v>5.84</v>
@@ -4812,10 +4812,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="46">
         <v>5.54</v>
@@ -4854,10 +4854,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="46">
         <v>4.49</v>
@@ -4896,10 +4896,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="46">
         <v>5.52</v>
@@ -4938,10 +4938,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="46">
         <v>6.51</v>
@@ -4980,10 +4980,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="46">
         <v>7.39</v>
@@ -5020,10 +5020,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="46">
         <v>6.11</v>
@@ -5062,10 +5062,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="46">
         <v>6.66</v>
@@ -5104,10 +5104,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="46">
         <v>7.56</v>
@@ -5146,10 +5146,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="46">
         <v>7.11</v>
@@ -5188,10 +5188,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="46">
         <v>6.37</v>
@@ -5230,10 +5230,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="46">
         <v>6.82</v>
@@ -5270,10 +5270,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="46">
         <v>5.67</v>
@@ -5313,10 +5313,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="46">
         <v>5.94</v>
@@ -5355,10 +5355,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="46">
         <v>5.84</v>
@@ -5397,10 +5397,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="46">
         <v>1.01</v>
@@ -5439,10 +5439,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="46">
         <v>5.81</v>
@@ -5481,10 +5481,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="46">
         <v>5.4</v>
@@ -5523,10 +5523,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="46">
         <v>6.55</v>
@@ -5565,10 +5565,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="46">
         <v>6.55</v>
@@ -5607,10 +5607,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D32" s="46">
         <v>5.71</v>
@@ -5649,10 +5649,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="46">
         <v>1.41</v>
@@ -5691,10 +5691,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="46">
         <v>6.34</v>
@@ -5733,10 +5733,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="46">
         <v>6.34</v>
@@ -5775,10 +5775,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="46">
         <v>4.5599999999999996</v>
@@ -5817,10 +5817,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D37" s="46">
         <v>6.41</v>
@@ -5859,10 +5859,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="46">
         <v>6.36</v>
@@ -5901,10 +5901,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D39" s="46">
         <v>7.34</v>
@@ -5941,10 +5941,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="46">
         <v>4.76</v>
@@ -5983,10 +5983,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="46">
         <v>6.66</v>
@@ -6025,10 +6025,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="46">
         <v>6.09</v>
@@ -6067,10 +6067,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="46">
         <v>6.02</v>
@@ -6109,10 +6109,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="46">
         <v>8.1199999999999992</v>
@@ -6149,10 +6149,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="46">
         <v>6.12</v>
@@ -6191,10 +6191,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="46">
         <v>8.39</v>
@@ -6231,10 +6231,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="46">
         <v>6.35</v>
@@ -6273,10 +6273,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="46">
         <v>4.1900000000000004</v>
@@ -6315,10 +6315,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="46">
         <v>5.96</v>
@@ -6357,10 +6357,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="46">
         <v>5.85</v>
@@ -6399,10 +6399,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D51" s="46">
         <v>7.61</v>
@@ -6439,10 +6439,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="46">
         <v>7.35</v>
@@ -6479,10 +6479,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="46">
         <v>6.96</v>
@@ -6530,9 +6530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:I3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6560,7 +6560,7 @@
         <v>32</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>33</v>
@@ -6606,10 +6606,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="18">
         <v>3</v>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="K3" s="31"/>
       <c r="L3" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15">
@@ -6643,10 +6643,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="18">
         <v>3</v>
@@ -6671,7 +6671,7 @@
         <v>25</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.8">
@@ -6679,10 +6679,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="18">
         <v>3</v>
@@ -6712,10 +6712,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="18">
         <v>3</v>
@@ -6745,10 +6745,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D7" s="18">
         <v>3</v>
@@ -6778,10 +6778,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="18">
         <v>3</v>
@@ -6811,10 +6811,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="18">
         <v>3</v>
@@ -6844,10 +6844,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="18">
         <v>3</v>
@@ -6877,10 +6877,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="18">
         <v>3</v>
@@ -6910,10 +6910,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="18">
         <v>3</v>
@@ -6943,10 +6943,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="18">
         <v>3</v>
@@ -6976,10 +6976,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="18">
         <v>3</v>
@@ -7009,10 +7009,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="18">
         <v>3</v>
@@ -7042,10 +7042,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="18">
         <v>3</v>
@@ -7075,10 +7075,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="18">
         <v>3</v>
@@ -7108,10 +7108,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="18">
         <v>3</v>
@@ -7141,10 +7141,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="18">
         <v>3</v>
@@ -7174,10 +7174,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
@@ -7207,10 +7207,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="18">
         <v>3</v>
@@ -7240,10 +7240,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="18">
         <v>3</v>
@@ -7273,10 +7273,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="18">
         <v>3</v>
@@ -7306,10 +7306,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="18">
         <v>3</v>
@@ -7339,10 +7339,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="18">
         <v>3</v>
@@ -7372,10 +7372,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="18">
         <v>3</v>
@@ -7405,10 +7405,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="18">
         <v>3</v>
@@ -7438,10 +7438,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="18">
         <v>3</v>
@@ -7471,10 +7471,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="18">
         <v>3</v>
@@ -7504,10 +7504,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="18">
         <v>3</v>
@@ -7537,10 +7537,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="18">
         <v>3</v>
@@ -7570,10 +7570,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D32" s="18">
         <v>3</v>
@@ -7603,10 +7603,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="18">
         <v>3</v>
@@ -7636,10 +7636,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="18">
         <v>3</v>
@@ -7669,10 +7669,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="18">
         <v>3</v>
@@ -7702,10 +7702,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="18">
         <v>3</v>
@@ -7735,10 +7735,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D37" s="18">
         <v>3</v>
@@ -7768,10 +7768,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="18">
         <v>3</v>
@@ -7801,10 +7801,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D39" s="18">
         <v>3</v>
@@ -7834,10 +7834,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="18">
         <v>3</v>
@@ -7867,10 +7867,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="18">
         <v>3</v>
@@ -7900,10 +7900,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="18">
         <v>3</v>
@@ -7933,10 +7933,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="18">
         <v>3</v>
@@ -7966,10 +7966,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="18">
         <v>3</v>
@@ -7999,10 +7999,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="18">
         <v>3</v>
@@ -8032,10 +8032,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="18">
         <v>3</v>
@@ -8065,10 +8065,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="18">
         <v>3</v>
@@ -8098,10 +8098,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="18">
         <v>3</v>
@@ -8131,10 +8131,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="18">
         <v>3</v>
@@ -8164,10 +8164,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="18">
         <v>3</v>
@@ -8197,10 +8197,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D51" s="18">
         <v>3</v>
@@ -8230,10 +8230,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="18">
         <v>3</v>
@@ -8263,10 +8263,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="18">
         <v>3</v>
@@ -8306,9 +8306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -8339,10 +8339,10 @@
         <v>38</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.2">
@@ -8356,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="23">
         <v>20</v>
@@ -8367,10 +8367,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="41">
         <v>10</v>
@@ -8387,7 +8387,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
@@ -8395,10 +8395,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="41">
         <v>10</v>
@@ -8415,7 +8415,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8">
@@ -8423,10 +8423,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="41">
         <v>10</v>
@@ -8448,10 +8448,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="41">
         <v>10</v>
@@ -8473,10 +8473,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D7" s="41">
         <v>10</v>
@@ -8498,10 +8498,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="41">
         <v>10</v>
@@ -8523,10 +8523,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="41">
         <v>10</v>
@@ -8548,10 +8548,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="41">
         <v>10</v>
@@ -8573,10 +8573,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="41">
         <v>10</v>
@@ -8598,10 +8598,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="41">
         <v>10</v>
@@ -8623,10 +8623,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="41">
         <v>10</v>
@@ -8648,10 +8648,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="41">
         <v>0</v>
@@ -8673,10 +8673,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="41">
         <v>10</v>
@@ -8698,10 +8698,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="41">
         <v>10</v>
@@ -8723,10 +8723,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="41">
         <v>10</v>
@@ -8748,10 +8748,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="41">
         <v>10</v>
@@ -8773,10 +8773,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="41">
         <v>10</v>
@@ -8798,10 +8798,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="41">
         <v>10</v>
@@ -8823,10 +8823,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="41">
         <v>10</v>
@@ -8848,10 +8848,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="41">
         <v>10</v>
@@ -8873,10 +8873,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="41">
         <v>10</v>
@@ -8898,10 +8898,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="41">
         <v>10</v>
@@ -8923,10 +8923,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="41">
         <v>10</v>
@@ -8948,10 +8948,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="41">
         <v>10</v>
@@ -8973,10 +8973,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="41">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="41">
         <v>10</v>
@@ -9023,10 +9023,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="41">
         <v>0</v>
@@ -9048,10 +9048,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="41">
         <v>10</v>
@@ -9073,10 +9073,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="41">
         <v>10</v>
@@ -9098,10 +9098,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D32" s="41">
         <v>10</v>
@@ -9123,10 +9123,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="41">
         <v>10</v>
@@ -9148,10 +9148,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="41">
         <v>10</v>
@@ -9173,10 +9173,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="41">
         <v>10</v>
@@ -9198,10 +9198,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="41">
         <v>10</v>
@@ -9223,10 +9223,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D37" s="41">
         <v>10</v>
@@ -9248,10 +9248,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="41">
         <v>10</v>
@@ -9273,10 +9273,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D39" s="41">
         <v>10</v>
@@ -9298,10 +9298,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="41">
         <v>0</v>
@@ -9323,10 +9323,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="41">
         <v>10</v>
@@ -9348,10 +9348,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="41">
         <v>10</v>
@@ -9373,10 +9373,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="41">
         <v>10</v>
@@ -9398,10 +9398,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="41">
         <v>10</v>
@@ -9423,10 +9423,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="41">
         <v>10</v>
@@ -9448,10 +9448,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="41">
         <v>10</v>
@@ -9473,10 +9473,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="41">
         <v>10</v>
@@ -9498,10 +9498,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="41">
         <v>0</v>
@@ -9523,10 +9523,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="41">
         <v>10</v>
@@ -9548,10 +9548,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="41">
         <v>10</v>
@@ -9573,10 +9573,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D51" s="41">
         <v>10</v>
@@ -9598,10 +9598,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="41">
         <v>10</v>
@@ -9623,10 +9623,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="41">
         <v>10</v>
@@ -9660,7 +9660,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9685,19 +9685,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>46</v>
-      </c>
       <c r="G1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="62.4">
@@ -9706,10 +9706,10 @@
       <c r="C2" s="60"/>
       <c r="D2" s="59"/>
       <c r="E2" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="23">
         <v>8</v>
@@ -9723,10 +9723,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="46">
         <v>5.85</v>
@@ -9745,7 +9745,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15">
@@ -9753,10 +9753,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="46">
         <v>9.02</v>
@@ -9775,7 +9775,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.8">
@@ -9783,10 +9783,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="46">
         <v>8.36</v>
@@ -9810,10 +9810,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="46">
         <v>5.24</v>
@@ -9837,10 +9837,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D7" s="46">
         <v>7.61</v>
@@ -9864,10 +9864,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="46">
         <v>6.13</v>
@@ -9891,10 +9891,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="46">
         <v>4.91</v>
@@ -9918,10 +9918,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="46">
         <v>6.24</v>
@@ -9945,10 +9945,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="46">
         <v>6.65</v>
@@ -9972,10 +9972,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="46">
         <v>5.84</v>
@@ -9999,10 +9999,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="46">
         <v>5.54</v>
@@ -10026,10 +10026,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="46">
         <v>4.49</v>
@@ -10053,10 +10053,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="46">
         <v>5.52</v>
@@ -10080,10 +10080,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="46">
         <v>6.51</v>
@@ -10107,10 +10107,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="46">
         <v>7.39</v>
@@ -10134,10 +10134,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="46">
         <v>6.11</v>
@@ -10161,10 +10161,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="46">
         <v>6.66</v>
@@ -10188,10 +10188,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="46">
         <v>7.56</v>
@@ -10215,10 +10215,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="46">
         <v>7.11</v>
@@ -10242,10 +10242,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="46">
         <v>6.37</v>
@@ -10269,10 +10269,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="46">
         <v>6.82</v>
@@ -10296,10 +10296,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="46">
         <v>5.67</v>
@@ -10323,10 +10323,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="46">
         <v>5.94</v>
@@ -10350,10 +10350,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="46">
         <v>5.84</v>
@@ -10377,10 +10377,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="46">
         <v>1.01</v>
@@ -10404,10 +10404,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="46">
         <v>5.81</v>
@@ -10431,10 +10431,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="46">
         <v>5.4</v>
@@ -10458,10 +10458,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="46">
         <v>6.55</v>
@@ -10485,10 +10485,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="46">
         <v>6.55</v>
@@ -10512,10 +10512,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D32" s="46">
         <v>5.71</v>
@@ -10539,10 +10539,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="46">
         <v>1.41</v>
@@ -10566,10 +10566,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="46">
         <v>6.34</v>
@@ -10593,10 +10593,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="46">
         <v>6.34</v>
@@ -10620,10 +10620,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="46">
         <v>4.5599999999999996</v>
@@ -10647,10 +10647,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D37" s="46">
         <v>6.41</v>
@@ -10674,10 +10674,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="46">
         <v>6.36</v>
@@ -10701,10 +10701,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D39" s="46">
         <v>7.34</v>
@@ -10728,10 +10728,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="46">
         <v>4.76</v>
@@ -10755,10 +10755,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="46">
         <v>6.66</v>
@@ -10782,10 +10782,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="46">
         <v>6.09</v>
@@ -10809,10 +10809,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="46">
         <v>6.02</v>
@@ -10836,10 +10836,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="46">
         <v>8.1199999999999992</v>
@@ -10863,10 +10863,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="46">
         <v>6.12</v>
@@ -10890,10 +10890,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="46">
         <v>8.39</v>
@@ -10917,10 +10917,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="46">
         <v>6.35</v>
@@ -10944,10 +10944,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="46">
         <v>4.1900000000000004</v>
@@ -10971,10 +10971,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="46">
         <v>5.96</v>
@@ -10998,10 +10998,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="46">
         <v>5.85</v>
@@ -11025,10 +11025,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D51" s="46">
         <v>7.61</v>
@@ -11052,10 +11052,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="46">
         <v>7.35</v>
@@ -11079,10 +11079,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="46">
         <v>6.96</v>
@@ -11119,7 +11119,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11146,13 +11146,13 @@
         <v>25</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>51</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="62.4">
@@ -11164,7 +11164,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="23">
         <v>10</v>
@@ -11175,10 +11175,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="41"/>
@@ -11188,10 +11188,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15">
@@ -11199,14 +11199,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="46"/>
       <c r="E4" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" s="18">
         <v>10</v>
@@ -11216,7 +11216,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.8">
@@ -11224,14 +11224,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>81</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="38">
@@ -11244,10 +11244,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="41"/>
@@ -11262,10 +11262,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="44" t="s">
         <v>84</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>85</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="41"/>
@@ -11281,10 +11281,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="44" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>87</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="41"/>
@@ -11299,10 +11299,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>89</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="41"/>
@@ -11318,10 +11318,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>91</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="41"/>
@@ -11336,10 +11336,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="41"/>
@@ -11354,10 +11354,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>94</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>95</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="41"/>
@@ -11372,10 +11372,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="41"/>
@@ -11390,10 +11390,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>99</v>
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="41"/>
@@ -11407,10 +11407,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="44" t="s">
         <v>100</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>101</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="41"/>
@@ -11426,10 +11426,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="41"/>
@@ -11444,10 +11444,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>104</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>105</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="41"/>
@@ -11462,10 +11462,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>106</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>107</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="41"/>
@@ -11480,10 +11480,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="41"/>
@@ -11498,10 +11498,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>108</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>109</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="41"/>
@@ -11516,10 +11516,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="41"/>
@@ -11534,10 +11534,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="46"/>
       <c r="E22" s="41"/>
@@ -11552,10 +11552,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="41"/>
@@ -11570,10 +11570,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="D24" s="46"/>
       <c r="E24" s="41"/>
@@ -11588,10 +11588,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D25" s="46"/>
       <c r="E25" s="41"/>
@@ -11606,10 +11606,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>116</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>117</v>
       </c>
       <c r="D26" s="46"/>
       <c r="E26" s="41"/>
@@ -11624,10 +11624,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="46"/>
       <c r="E27" s="41"/>
@@ -11642,10 +11642,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="46"/>
       <c r="E28" s="41"/>
@@ -11661,10 +11661,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>128</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>129</v>
       </c>
       <c r="D29" s="46"/>
       <c r="E29" s="41"/>
@@ -11679,10 +11679,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>130</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>131</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="41"/>
@@ -11697,14 +11697,14 @@
         <v>29</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>132</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>133</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38">
@@ -11712,7 +11712,7 @@
         <v>10</v>
       </c>
       <c r="H31" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.8">
@@ -11720,14 +11720,14 @@
         <v>30</v>
       </c>
       <c r="B32" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="44" t="s">
         <v>134</v>
-      </c>
-      <c r="C32" s="44" t="s">
-        <v>135</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38">
@@ -11735,7 +11735,7 @@
         <v>10</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.8">
@@ -11743,10 +11743,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="41"/>
@@ -11761,10 +11761,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="44" t="s">
         <v>138</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>139</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="41"/>
@@ -11779,10 +11779,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>140</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>141</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="41"/>
@@ -11797,10 +11797,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="44" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="44" t="s">
-        <v>143</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="41"/>
@@ -11815,10 +11815,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>144</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>145</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="41"/>
@@ -11833,10 +11833,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="44" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="41"/>
@@ -11851,10 +11851,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="44" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>149</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="41"/>
@@ -11870,14 +11870,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="44" t="s">
         <v>150</v>
-      </c>
-      <c r="C40" s="44" t="s">
-        <v>151</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38">
@@ -11885,7 +11885,7 @@
         <v>10</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.8">
@@ -11893,10 +11893,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="41"/>
@@ -11911,10 +11911,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="44" t="s">
         <v>154</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>155</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="41"/>
@@ -11929,10 +11929,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="44" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>157</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="41"/>
@@ -11947,14 +11947,14 @@
         <v>42</v>
       </c>
       <c r="B44" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="44" t="s">
         <v>158</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38">
@@ -11962,7 +11962,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.8">
@@ -11970,10 +11970,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>167</v>
       </c>
       <c r="D45" s="38"/>
       <c r="E45" s="41"/>
@@ -11988,10 +11988,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="44" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="44" t="s">
-        <v>169</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="41"/>
@@ -12006,10 +12006,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="44" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" s="44" t="s">
-        <v>161</v>
       </c>
       <c r="D47" s="38"/>
       <c r="E47" s="41"/>
@@ -12024,10 +12024,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>171</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="41"/>
@@ -12042,10 +12042,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="44" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="38"/>
       <c r="E49" s="41"/>
@@ -12060,10 +12060,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="41"/>
@@ -12078,10 +12078,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="44" t="s">
         <v>172</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>173</v>
       </c>
       <c r="D51" s="38"/>
       <c r="E51" s="41"/>
@@ -12096,10 +12096,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="44" t="s">
         <v>174</v>
-      </c>
-      <c r="C52" s="44" t="s">
-        <v>175</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="41"/>
@@ -12114,10 +12114,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="38"/>
       <c r="E53" s="41"/>
